--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3442.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3442.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.414113258485045</v>
+        <v>1.323166608810425</v>
       </c>
       <c r="B1">
-        <v>2.845645400834762</v>
+        <v>2.448666572570801</v>
       </c>
       <c r="C1">
-        <v>3.349483193589583</v>
+        <v>5.896531105041504</v>
       </c>
       <c r="D1">
-        <v>3.893317519341533</v>
+        <v>1.776394009590149</v>
       </c>
       <c r="E1">
-        <v>1.723998686210531</v>
+        <v>1.284339904785156</v>
       </c>
     </row>
   </sheetData>
